--- a/因子列表.xlsx
+++ b/因子列表.xlsx
@@ -11,8 +11,127 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Profitability</t>
+  </si>
+  <si>
+    <t>Payout</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Cash flow over assets</t>
+  </si>
+  <si>
+    <t>Gross margin</t>
+  </si>
+  <si>
+    <t>Gross profits over assets</t>
+  </si>
+  <si>
+    <t>Low accruals</t>
+  </si>
+  <si>
+    <t>Return on assets</t>
+  </si>
+  <si>
+    <t>Return on equity</t>
+  </si>
+  <si>
+    <t>Net debt issuance</t>
+  </si>
+  <si>
+    <t>Net equity issuance</t>
+  </si>
+  <si>
+    <t>Total net payouts over profits</t>
+  </si>
+  <si>
+    <t>Cash flow over assets (5y change)</t>
+  </si>
+  <si>
+    <t>Gross margin (5y change)</t>
+  </si>
+  <si>
+    <t>Gross profits over assets (5y change)</t>
+  </si>
+  <si>
+    <t>Low accruals (5y change)</t>
+  </si>
+  <si>
+    <t>Return on assets (5y change)</t>
+  </si>
+  <si>
+    <t>Return on equity (5y change)</t>
+  </si>
+  <si>
+    <t>Low beta</t>
+  </si>
+  <si>
+    <t>Low idiosyncratic volatilty</t>
+  </si>
+  <si>
+    <t>Low leverage</t>
+  </si>
+  <si>
+    <t>(net income + depreciation - change working capital - capital expenditures) / total assets</t>
+  </si>
+  <si>
+    <t>(revenue - cost of goods sold) / net sales</t>
+  </si>
+  <si>
+    <t>(revenue - cost of goods sold) / total assets</t>
+  </si>
+  <si>
+    <t>(depreciation - change working capital) / total assets</t>
+  </si>
+  <si>
+    <t>Net income / total assets</t>
+  </si>
+  <si>
+    <t>Net income / book equity</t>
+  </si>
+  <si>
+    <t>-log(total debt current / total debt one year ago)</t>
+  </si>
+  <si>
+    <t>-log(outstanding number of shares current / outstanding number of shares one year ago)</t>
+  </si>
+  <si>
+    <t>Total net payouts / profits</t>
+  </si>
+  <si>
+    <t>Five-year change corresponding profitability metric, i.e. (CashFlowt - CashFlowt-5) / TotalAssetst-5</t>
+  </si>
+  <si>
+    <t>Minus realized beta to S&amp;P 500 Index based on weekly returns over a rolling three-year window</t>
+  </si>
+  <si>
+    <t>Minus standard deviation of the daily market-adjusted returns over the past year</t>
+  </si>
+  <si>
+    <t>Total debt / total assets</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,8 +175,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -354,12 +476,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/因子列表.xlsx
+++ b/因子列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>Category</t>
   </si>
@@ -130,13 +130,253 @@
   </si>
   <si>
     <t>Total debt / total assets</t>
+  </si>
+  <si>
+    <t>报告期，去年同期，年报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风险模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetOperateCashFlow/TotalAssets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(TotalOperatingRevenue-TotalOperatingCost)/TotalOperatingRevenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simplified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(TotalOperatingRevenue-TotalOperatingCost)/TotalAssets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(depreciation - change working capital) / total assets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CashRateOfSalesTTM</t>
+  </si>
+  <si>
+    <r>
+      <t>经营活动产生的现金流量净额/营业收入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTM（%）</t>
+    </r>
+  </si>
+  <si>
+    <t>decimal(18,4)</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>注80</t>
+  </si>
+  <si>
+    <t>NetProfitRatioTTM</t>
+  </si>
+  <si>
+    <r>
+      <t>销售净利率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTM（%）</t>
+    </r>
+  </si>
+  <si>
+    <t>注34</t>
+  </si>
+  <si>
+    <t>ROATTM</t>
+  </si>
+  <si>
+    <r>
+      <t>总资产净利率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTM（%）</t>
+    </r>
+  </si>
+  <si>
+    <t>注31</t>
+  </si>
+  <si>
+    <r>
+      <t>ROA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EBITTTM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>总资产报酬率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTM（%）</t>
+    </r>
+  </si>
+  <si>
+    <t>注29</t>
+  </si>
+  <si>
+    <t>ROETTM</t>
+  </si>
+  <si>
+    <r>
+      <t>净资产收益率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TTM（%）</t>
+    </r>
+  </si>
+  <si>
+    <t>注27</t>
+  </si>
+  <si>
+    <t>DividendPaidRatio</t>
+  </si>
+  <si>
+    <t>股利支付率（%）</t>
+  </si>
+  <si>
+    <t>注92</t>
+  </si>
+  <si>
+    <t>DebtAssetsRatio</t>
+  </si>
+  <si>
+    <t>资产负债率（%）</t>
+  </si>
+  <si>
+    <t>注94</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +392,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,12 +424,47 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF969696"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF969696"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF969696"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF969696"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF969696"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -175,11 +473,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,20 +798,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:10" ht="22.5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -510,8 +838,29 @@
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3">
+        <v>116</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="22.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -521,8 +870,29 @@
       <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -532,8 +902,29 @@
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -543,8 +934,11 @@
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -554,8 +948,29 @@
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -565,8 +980,29 @@
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -576,8 +1012,11 @@
       <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -587,8 +1026,11 @@
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22.5">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -598,8 +1040,29 @@
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="3">
+        <v>131</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -610,7 +1073,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -621,7 +1084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -632,7 +1095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -643,7 +1106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -654,7 +1117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -665,7 +1128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -675,8 +1138,11 @@
       <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -686,8 +1152,11 @@
       <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -696,6 +1165,27 @@
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="3">
+        <v>133</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -707,12 +1197,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="100.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
